--- a/data/134/DEUSTATIS/old/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Growth contributions to price-adjusted GDP quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="73">
   <si>
     <t>National accounts - Growth contributions to price-adjusted
 GDP: Germany, quarters, original and adjusted data, use
@@ -232,7 +232,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:49:03</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:52:16</t>
   </si>
 </sst>
 </file>
@@ -3862,13 +3862,13 @@
         <v>-3.1</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>-4.3</v>
+        <v>-4.1</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>44</v>
+        <v>7.1</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>3.5</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>44</v>
@@ -4242,13 +4242,13 @@
         <v>-2.1</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>-4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="DU9" t="s" s="10">
-        <v>44</v>
+        <v>4.7</v>
+      </c>
+      <c r="DU9" t="n" s="10">
+        <v>1.3</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>44</v>
@@ -4622,13 +4622,13 @@
         <v>-3.0</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>-4.6</v>
+        <v>-4.7</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="DU10" t="s" s="10">
-        <v>44</v>
+        <v>3.3</v>
+      </c>
+      <c r="DU10" t="n" s="10">
+        <v>0.8</v>
       </c>
       <c r="DV10" t="s" s="10">
         <v>44</v>
@@ -5005,10 +5005,10 @@
         <v>0.5</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="DU11" t="s" s="10">
-        <v>44</v>
+        <v>1.4</v>
+      </c>
+      <c r="DU11" t="n" s="10">
+        <v>0.5</v>
       </c>
       <c r="DV11" t="s" s="10">
         <v>44</v>
@@ -5382,13 +5382,13 @@
         <v>-1.0</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>44</v>
+        <v>2.4</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>2.2</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>44</v>
@@ -5762,13 +5762,13 @@
         <v>0.3</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>44</v>
+        <v>2.0</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>0.2</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>44</v>
@@ -6145,10 +6145,10 @@
         <v>0.0</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="DU14" t="s" s="10">
-        <v>44</v>
+        <v>1.3</v>
+      </c>
+      <c r="DU14" t="n" s="10">
+        <v>-0.1</v>
       </c>
       <c r="DV14" t="s" s="10">
         <v>44</v>
@@ -6525,10 +6525,10 @@
         <v>-0.2</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="DU15" t="s" s="10">
-        <v>44</v>
+        <v>0.6</v>
+      </c>
+      <c r="DU15" t="n" s="10">
+        <v>0.2</v>
       </c>
       <c r="DV15" t="s" s="10">
         <v>44</v>
@@ -6907,8 +6907,8 @@
       <c r="DT16" t="n" s="10">
         <v>0.1</v>
       </c>
-      <c r="DU16" t="s" s="10">
-        <v>44</v>
+      <c r="DU16" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>44</v>
@@ -7282,13 +7282,13 @@
         <v>-1.3</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>44</v>
+        <v>0.4</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>2.0</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>44</v>
@@ -7667,8 +7667,8 @@
       <c r="DT18" t="n" s="10">
         <v>3.3</v>
       </c>
-      <c r="DU18" t="s" s="10">
-        <v>44</v>
+      <c r="DU18" t="n" s="10">
+        <v>-0.9</v>
       </c>
       <c r="DV18" t="s" s="10">
         <v>44</v>
@@ -8047,8 +8047,8 @@
       <c r="DT19" t="n" s="10">
         <v>10.7</v>
       </c>
-      <c r="DU19" t="s" s="10">
-        <v>44</v>
+      <c r="DU19" t="n" s="10">
+        <v>2.4</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>44</v>
@@ -8427,8 +8427,8 @@
       <c r="DT20" t="n" s="10">
         <v>-7.4</v>
       </c>
-      <c r="DU20" t="s" s="10">
-        <v>44</v>
+      <c r="DU20" t="n" s="10">
+        <v>-3.3</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>44</v>
@@ -8807,13 +8807,13 @@
         <v>-0.2</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>2.2</v>
-      </c>
-      <c r="DU22" t="s" s="10">
-        <v>44</v>
+        <v>2.6</v>
+      </c>
+      <c r="DU22" t="n" s="10">
+        <v>1.9</v>
       </c>
       <c r="DV22" t="s" s="10">
         <v>44</v>
@@ -8896,7 +8896,7 @@
         <v>0.4</v>
       </c>
       <c r="Z23" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AA23" t="n" s="10">
         <v>0.2</v>
@@ -8953,7 +8953,7 @@
         <v>-0.3</v>
       </c>
       <c r="AS23" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AT23" t="n" s="10">
         <v>0.1</v>
@@ -8962,7 +8962,7 @@
         <v>-0.7</v>
       </c>
       <c r="AV23" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AW23" t="n" s="10">
         <v>0.5</v>
@@ -8977,13 +8977,13 @@
         <v>0.0</v>
       </c>
       <c r="BA23" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BB23" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="BC23" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="BD23" t="n" s="10">
         <v>-0.1</v>
@@ -9154,7 +9154,7 @@
         <v>0.0</v>
       </c>
       <c r="DH23" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="DI23" t="n" s="10">
         <v>-0.1</v>
@@ -9163,7 +9163,7 @@
         <v>0.5</v>
       </c>
       <c r="DK23" t="n" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="DL23" t="n" s="10">
         <v>0.0</v>
@@ -9178,7 +9178,7 @@
         <v>-0.9</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="DQ23" t="n" s="10">
         <v>6.2</v>
@@ -9187,13 +9187,13 @@
         <v>-1.2</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="DU23" t="s" s="10">
-        <v>44</v>
+        <v>2.9</v>
+      </c>
+      <c r="DU23" t="n" s="10">
+        <v>2.5</v>
       </c>
       <c r="DV23" t="s" s="10">
         <v>44</v>
@@ -9570,10 +9570,10 @@
         <v>-2.6</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>44</v>
+        <v>1.8</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>3.0</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>44</v>
@@ -9638,7 +9638,7 @@
         <v>-0.2</v>
       </c>
       <c r="T25" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="U25" t="n" s="10">
         <v>0.3</v>
@@ -9662,10 +9662,10 @@
         <v>0.0</v>
       </c>
       <c r="AB25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC25" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AD25" t="n" s="10">
         <v>-0.3</v>
@@ -9683,7 +9683,7 @@
         <v>-0.1</v>
       </c>
       <c r="AI25" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ25" t="n" s="10">
         <v>-0.1</v>
@@ -9710,7 +9710,7 @@
         <v>0.1</v>
       </c>
       <c r="AR25" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="AS25" t="n" s="10">
         <v>0.0</v>
@@ -9899,7 +9899,7 @@
         <v>0.1</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DD25" t="n" s="10">
         <v>0.1</v>
@@ -9914,7 +9914,7 @@
         <v>-0.1</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DI25" t="n" s="10">
         <v>-0.1</v>
@@ -9935,7 +9935,7 @@
         <v>0.1</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DP25" t="n" s="10">
         <v>0.2</v>
@@ -9950,10 +9950,10 @@
         <v>-0.2</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="DU25" t="s" s="10">
-        <v>44</v>
+        <v>1.0</v>
+      </c>
+      <c r="DU25" t="n" s="10">
+        <v>-0.5</v>
       </c>
       <c r="DV25" t="s" s="10">
         <v>44</v>
@@ -9994,7 +9994,7 @@
         <v>-0.7</v>
       </c>
       <c r="L26" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M26" t="n" s="10">
         <v>0.4</v>
@@ -10042,7 +10042,7 @@
         <v>-0.4</v>
       </c>
       <c r="AB26" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AC26" t="n" s="10">
         <v>0.1</v>
@@ -10051,7 +10051,7 @@
         <v>0.4</v>
       </c>
       <c r="AE26" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AF26" t="n" s="10">
         <v>-0.2</v>
@@ -10066,7 +10066,7 @@
         <v>1.2</v>
       </c>
       <c r="AJ26" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AK26" t="n" s="10">
         <v>1.1</v>
@@ -10087,10 +10087,10 @@
         <v>-0.1</v>
       </c>
       <c r="AQ26" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AR26" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AS26" t="n" s="10">
         <v>-0.8</v>
@@ -10117,7 +10117,7 @@
         <v>0.0</v>
       </c>
       <c r="BA26" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="BB26" t="n" s="10">
         <v>0.4</v>
@@ -10126,7 +10126,7 @@
         <v>-0.9</v>
       </c>
       <c r="BD26" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="BE26" t="n" s="10">
         <v>1.1</v>
@@ -10294,7 +10294,7 @@
         <v>-0.4</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="DI26" t="n" s="10">
         <v>0.9</v>
@@ -10309,31 +10309,31 @@
         <v>0.0</v>
       </c>
       <c r="DM26" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="DN26" t="n" s="10">
         <v>0.0</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>-1.9</v>
+        <v>-2.0</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="DR26" t="n" s="10">
         <v>1.0</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>44</v>
+        <v>-0.2</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>-0.6</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>44</v>
@@ -10368,7 +10368,7 @@
         <v>-0.7</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="n" s="10">
         <v>-0.6</v>
@@ -10377,7 +10377,7 @@
         <v>-0.2</v>
       </c>
       <c r="M27" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N27" t="n" s="10">
         <v>-0.4</v>
@@ -10662,7 +10662,7 @@
         <v>0.2</v>
       </c>
       <c r="DD27" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="DE27" t="n" s="10">
         <v>0.1</v>
@@ -10707,13 +10707,13 @@
         <v>0.5</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>44</v>
+        <v>0.3</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>-0.5</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>44</v>
@@ -11092,8 +11092,8 @@
       <c r="DT28" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="DU28" t="s" s="10">
-        <v>44</v>
+      <c r="DU28" t="n" s="10">
+        <v>-0.2</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>44</v>
@@ -11470,10 +11470,10 @@
         <v>0.0</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="DU29" t="s" s="10">
-        <v>44</v>
+        <v>0.2</v>
+      </c>
+      <c r="DU29" t="n" s="10">
+        <v>-0.3</v>
       </c>
       <c r="DV29" t="s" s="10">
         <v>44</v>
@@ -11829,7 +11829,7 @@
         <v>0.1</v>
       </c>
       <c r="DM30" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DN30" t="n" s="10">
         <v>0.0</v>
@@ -11838,7 +11838,7 @@
         <v>0.0</v>
       </c>
       <c r="DP30" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DQ30" t="n" s="10">
         <v>0.1</v>
@@ -11850,10 +11850,10 @@
         <v>-0.1</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DU30" t="s" s="10">
-        <v>44</v>
+        <v>0.0</v>
+      </c>
+      <c r="DU30" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="DV30" t="s" s="10">
         <v>44</v>
@@ -11885,7 +11885,7 @@
         <v>-0.2</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="J31" t="n" s="10">
         <v>-0.5</v>
@@ -11969,7 +11969,7 @@
         <v>-0.8</v>
       </c>
       <c r="AK31" t="n" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AL31" t="n" s="10">
         <v>0.1</v>
@@ -12182,7 +12182,7 @@
         <v>0.4</v>
       </c>
       <c r="DD31" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DE31" t="n" s="10">
         <v>-0.1</v>
@@ -12194,7 +12194,7 @@
         <v>-0.5</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DI31" t="n" s="10">
         <v>0.7</v>
@@ -12206,7 +12206,7 @@
         <v>-0.1</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DM31" t="n" s="10">
         <v>-0.4</v>
@@ -12215,10 +12215,10 @@
         <v>0.2</v>
       </c>
       <c r="DO31" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DP31" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="DQ31" t="n" s="10">
         <v>-1.8</v>
@@ -12227,13 +12227,13 @@
         <v>0.5</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DU31" t="s" s="10">
-        <v>44</v>
+        <v>-0.5</v>
+      </c>
+      <c r="DU31" t="n" s="10">
+        <v>-0.1</v>
       </c>
       <c r="DV31" t="s" s="10">
         <v>44</v>
@@ -12607,13 +12607,13 @@
         <v>1.0</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.9</v>
       </c>
       <c r="DT32" t="n" s="10">
         <v>-0.6</v>
       </c>
-      <c r="DU32" t="s" s="10">
-        <v>44</v>
+      <c r="DU32" t="n" s="10">
+        <v>-0.2</v>
       </c>
       <c r="DV32" t="s" s="10">
         <v>44</v>
@@ -12992,8 +12992,8 @@
       <c r="DT33" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="DU33" t="s" s="10">
-        <v>44</v>
+      <c r="DU33" t="n" s="10">
+        <v>-0.5</v>
       </c>
       <c r="DV33" t="s" s="10">
         <v>44</v>
@@ -13367,13 +13367,13 @@
         <v>-1.0</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>-0.8</v>
-      </c>
-      <c r="DU34" t="s" s="10">
-        <v>44</v>
+        <v>-0.9</v>
+      </c>
+      <c r="DU34" t="n" s="10">
+        <v>0.2</v>
       </c>
       <c r="DV34" t="s" s="10">
         <v>44</v>
@@ -13401,7 +13401,7 @@
         <v>-0.1</v>
       </c>
       <c r="F36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G36" t="n" s="10">
         <v>2.2</v>
@@ -13440,46 +13440,46 @@
         <v>1.3</v>
       </c>
       <c r="S36" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="T36" t="n" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U36" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V36" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="W36" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="X36" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Y36" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Z36" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AA36" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AB36" t="n" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AC36" t="n" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AD36" t="n" s="10">
         <v>0.7</v>
       </c>
-      <c r="U36" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="V36" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="W36" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="X36" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="Y36" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="Z36" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="AA36" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="AB36" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AC36" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="AD36" t="n" s="10">
-        <v>0.8</v>
-      </c>
       <c r="AE36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AF36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AG36" t="n" s="10">
         <v>0.8</v>
@@ -13536,7 +13536,7 @@
         <v>-0.2</v>
       </c>
       <c r="AY36" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AZ36" t="n" s="10">
         <v>0.1</v>
@@ -13557,19 +13557,19 @@
         <v>0.5</v>
       </c>
       <c r="BF36" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BG36" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="BH36" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="BI36" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BJ36" t="n" s="10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="BK36" t="n" s="10">
         <v>0.9</v>
@@ -13578,49 +13578,49 @@
         <v>0.9</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BN36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BO36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BP36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BQ36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="BR36" t="n" s="10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="BS36" t="n" s="10">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="BT36" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BU36" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="BV36" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="BW36" t="n" s="10">
+        <v>-2.2</v>
+      </c>
+      <c r="BX36" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BY36" t="n" s="10">
         <v>-0.5</v>
       </c>
-      <c r="BW36" t="n" s="10">
-        <v>-2.5</v>
-      </c>
-      <c r="BX36" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="BY36" t="n" s="10">
-        <v>-0.2</v>
-      </c>
       <c r="BZ36" t="n" s="10">
-        <v>-0.2</v>
+        <v>0.0</v>
       </c>
       <c r="CA36" t="n" s="10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="CB36" t="n" s="10">
         <v>1.9</v>
@@ -13650,7 +13650,7 @@
         <v>-0.4</v>
       </c>
       <c r="CK36" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CL36" t="n" s="10">
         <v>0.5</v>
@@ -13692,10 +13692,10 @@
         <v>0.6</v>
       </c>
       <c r="CY36" t="n" s="10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="CZ36" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DA36" t="n" s="10">
         <v>0.7</v>
@@ -13710,55 +13710,55 @@
         <v>1.2</v>
       </c>
       <c r="DE36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DF36" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="DG36" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="DH36" t="n" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="DI36" t="n" s="10">
         <v>0.8</v>
       </c>
       <c r="DJ36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DK36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="DL36" t="n" s="10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="DM36" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="DN36" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DO36" t="n" s="10">
-        <v>-1.0</v>
+        <v>-0.7</v>
       </c>
       <c r="DP36" t="n" s="10">
-        <v>-7.6</v>
+        <v>-7.8</v>
       </c>
       <c r="DQ36" t="n" s="10">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="DR36" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="DU36" t="s" s="10">
-        <v>44</v>
+        <v>1.8</v>
+      </c>
+      <c r="DU36" t="n" s="10">
+        <v>2.6</v>
       </c>
       <c r="DV36" t="s" s="10">
         <v>44</v>
@@ -14009,7 +14009,7 @@
         <v>0.5</v>
       </c>
       <c r="CD37" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="CE37" t="n" s="10">
         <v>0.1</v>
@@ -14117,28 +14117,28 @@
         <v>0.3</v>
       </c>
       <c r="DN37" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DO37" t="n" s="10">
         <v>-0.4</v>
       </c>
       <c r="DP37" t="n" s="10">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="DQ37" t="n" s="10">
-        <v>6.0</v>
+        <v>6.2</v>
       </c>
       <c r="DR37" t="n" s="10">
         <v>-1.1</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>-2.0</v>
+        <v>-1.9</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="DU37" t="s" s="10">
-        <v>44</v>
+        <v>1.4</v>
+      </c>
+      <c r="DU37" t="n" s="10">
+        <v>2.9</v>
       </c>
       <c r="DV37" t="s" s="10">
         <v>44</v>
@@ -14176,7 +14176,7 @@
         <v>0.7</v>
       </c>
       <c r="K38" t="n" s="10">
-        <v>-0.9</v>
+        <v>-1.0</v>
       </c>
       <c r="L38" t="n" s="10">
         <v>0.3</v>
@@ -14500,10 +14500,10 @@
         <v>0.0</v>
       </c>
       <c r="DO38" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DP38" t="n" s="10">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="DQ38" t="n" s="10">
         <v>5.7</v>
@@ -14515,10 +14515,10 @@
         <v>-1.9</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="DU38" t="s" s="10">
-        <v>44</v>
+        <v>0.8</v>
+      </c>
+      <c r="DU38" t="n" s="10">
+        <v>3.2</v>
       </c>
       <c r="DV38" t="s" s="10">
         <v>44</v>
@@ -14883,22 +14883,22 @@
         <v>0.2</v>
       </c>
       <c r="DP39" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DQ39" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="DR39" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="DU39" t="s" s="10">
-        <v>44</v>
+        <v>0.6</v>
+      </c>
+      <c r="DU39" t="n" s="10">
+        <v>-0.3</v>
       </c>
       <c r="DV39" t="s" s="10">
         <v>44</v>
@@ -14918,13 +14918,13 @@
         <v>0.3</v>
       </c>
       <c r="E40" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n" s="10">
         <v>-0.7</v>
@@ -14972,7 +14972,7 @@
         <v>-0.4</v>
       </c>
       <c r="W40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="X40" t="n" s="10">
         <v>0.3</v>
@@ -14984,7 +14984,7 @@
         <v>0.1</v>
       </c>
       <c r="AA40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n" s="10">
         <v>0.3</v>
@@ -14996,7 +14996,7 @@
         <v>0.5</v>
       </c>
       <c r="AE40" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF40" t="n" s="10">
         <v>0.0</v>
@@ -15044,10 +15044,10 @@
         <v>-0.7</v>
       </c>
       <c r="AU40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AV40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AW40" t="n" s="10">
         <v>-0.2</v>
@@ -15068,16 +15068,16 @@
         <v>0.4</v>
       </c>
       <c r="BC40" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="BD40" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BE40" t="n" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="BF40" t="n" s="10">
         <v>-0.6</v>
-      </c>
-      <c r="BD40" t="n" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="BE40" t="n" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="BF40" t="n" s="10">
-        <v>-0.7</v>
       </c>
       <c r="BG40" t="n" s="10">
         <v>-0.4</v>
@@ -15086,10 +15086,10 @@
         <v>0.4</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BJ40" t="n" s="10">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="BK40" t="n" s="10">
         <v>0.3</v>
@@ -15110,49 +15110,49 @@
         <v>0.1</v>
       </c>
       <c r="BQ40" t="n" s="10">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="BR40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="BS40" t="n" s="10">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="BT40" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
       <c r="BV40" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="BW40" t="n" s="10">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="BX40" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BY40" t="n" s="10">
         <v>-0.3</v>
       </c>
-      <c r="BY40" t="n" s="10">
-        <v>0.1</v>
-      </c>
       <c r="BZ40" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="CB40" t="n" s="10">
         <v>1.7</v>
       </c>
       <c r="CC40" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CD40" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="CE40" t="n" s="10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="CF40" t="n" s="10">
         <v>0.0</v>
@@ -15185,7 +15185,7 @@
         <v>0.5</v>
       </c>
       <c r="CP40" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CQ40" t="n" s="10">
         <v>0.6</v>
@@ -15206,7 +15206,7 @@
         <v>0.1</v>
       </c>
       <c r="CW40" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CX40" t="n" s="10">
         <v>0.2</v>
@@ -15233,13 +15233,13 @@
         <v>-0.1</v>
       </c>
       <c r="DF40" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DG40" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="DH40" t="n" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="DI40" t="n" s="10">
         <v>0.8</v>
@@ -15248,37 +15248,37 @@
         <v>-0.1</v>
       </c>
       <c r="DK40" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DL40" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DM40" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="DN40" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="DO40" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="DP40" t="n" s="10">
+        <v>-1.3</v>
+      </c>
+      <c r="DQ40" t="n" s="10">
         <v>-0.4</v>
       </c>
-      <c r="DL40" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DM40" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="DN40" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="DO40" t="n" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="DP40" t="n" s="10">
-        <v>-1.4</v>
-      </c>
-      <c r="DQ40" t="n" s="10">
-        <v>-0.2</v>
-      </c>
       <c r="DR40" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="DU40" t="s" s="10">
-        <v>44</v>
+        <v>0.4</v>
+      </c>
+      <c r="DU40" t="n" s="10">
+        <v>-0.3</v>
       </c>
       <c r="DV40" t="s" s="10">
         <v>44</v>
@@ -15463,7 +15463,7 @@
         <v>0.1</v>
       </c>
       <c r="BH41" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BI41" t="n" s="10">
         <v>0.4</v>
@@ -15487,22 +15487,22 @@
         <v>0.0</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BQ41" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BR41" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="BS41" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BT41" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="BU41" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="BV41" t="n" s="10">
         <v>-0.1</v>
@@ -15514,7 +15514,7 @@
         <v>-0.3</v>
       </c>
       <c r="BY41" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="BZ41" t="n" s="10">
         <v>0.1</v>
@@ -15523,10 +15523,10 @@
         <v>0.2</v>
       </c>
       <c r="CB41" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="CC41" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CD41" t="n" s="10">
         <v>0.2</v>
@@ -15589,7 +15589,7 @@
         <v>0.2</v>
       </c>
       <c r="CX41" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="CY41" t="n" s="10">
         <v>0.3</v>
@@ -15622,7 +15622,7 @@
         <v>0.2</v>
       </c>
       <c r="DI41" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="DJ41" t="n" s="10">
         <v>0.2</v>
@@ -15643,22 +15643,22 @@
         <v>0.0</v>
       </c>
       <c r="DP41" t="n" s="10">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="DQ41" t="n" s="10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="DR41" t="n" s="10">
         <v>0.4</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="DT41" t="n" s="10">
         <v>0.3</v>
       </c>
-      <c r="DU41" t="s" s="10">
-        <v>44</v>
+      <c r="DU41" t="n" s="10">
+        <v>-0.3</v>
       </c>
       <c r="DV41" t="s" s="10">
         <v>44</v>
@@ -15870,19 +15870,19 @@
         <v>0.0</v>
       </c>
       <c r="BQ42" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BR42" t="n" s="10">
         <v>0.3</v>
       </c>
       <c r="BS42" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BT42" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="BU42" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="BV42" t="n" s="10">
         <v>-0.1</v>
@@ -15894,16 +15894,16 @@
         <v>-0.3</v>
       </c>
       <c r="BY42" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="BZ42" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="CA42" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CB42" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="CC42" t="n" s="10">
         <v>0.2</v>
@@ -15915,7 +15915,7 @@
         <v>0.0</v>
       </c>
       <c r="CF42" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CG42" t="n" s="10">
         <v>0.2</v>
@@ -15927,7 +15927,7 @@
         <v>0.0</v>
       </c>
       <c r="CJ42" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CK42" t="n" s="10">
         <v>-0.1</v>
@@ -15939,7 +15939,7 @@
         <v>-0.2</v>
       </c>
       <c r="CN42" t="n" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="CO42" t="n" s="10">
         <v>0.0</v>
@@ -16023,10 +16023,10 @@
         <v>-0.3</v>
       </c>
       <c r="DP42" t="n" s="10">
-        <v>-1.0</v>
+        <v>-1.1</v>
       </c>
       <c r="DQ42" t="n" s="10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="DR42" t="n" s="10">
         <v>0.1</v>
@@ -16035,10 +16035,10 @@
         <v>0.1</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="DU42" t="s" s="10">
-        <v>44</v>
+        <v>-0.1</v>
+      </c>
+      <c r="DU42" t="n" s="10">
+        <v>-0.2</v>
       </c>
       <c r="DV42" t="s" s="10">
         <v>44</v>
@@ -16412,13 +16412,13 @@
         <v>0.2</v>
       </c>
       <c r="DS43" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DT43" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="DU43" t="s" s="10">
-        <v>44</v>
+        <v>0.3</v>
+      </c>
+      <c r="DU43" t="n" s="10">
+        <v>-0.1</v>
       </c>
       <c r="DV43" t="s" s="10">
         <v>44</v>
@@ -16744,7 +16744,7 @@
         <v>0.0</v>
       </c>
       <c r="DC44" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DD44" t="n" s="10">
         <v>0.0</v>
@@ -16765,7 +16765,7 @@
         <v>0.0</v>
       </c>
       <c r="DJ44" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DK44" t="n" s="10">
         <v>0.1</v>
@@ -16789,7 +16789,7 @@
         <v>0.1</v>
       </c>
       <c r="DR44" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="DS44" t="n" s="10">
         <v>-0.1</v>
@@ -16797,8 +16797,8 @@
       <c r="DT44" t="n" s="10">
         <v>0.1</v>
       </c>
-      <c r="DU44" t="s" s="10">
-        <v>44</v>
+      <c r="DU44" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="DV44" t="s" s="10">
         <v>44</v>
@@ -16845,7 +16845,7 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="O45" t="n" s="10">
         <v>-0.3</v>
@@ -16878,10 +16878,10 @@
         <v>-0.4</v>
       </c>
       <c r="Y45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="Z45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AA45" t="n" s="10">
         <v>0.2</v>
@@ -16914,10 +16914,10 @@
         <v>-0.3</v>
       </c>
       <c r="AK45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AL45" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AM45" t="n" s="10">
         <v>0.1</v>
@@ -16956,7 +16956,7 @@
         <v>-0.2</v>
       </c>
       <c r="AY45" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AZ45" t="n" s="10">
         <v>-0.2</v>
@@ -16974,10 +16974,10 @@
         <v>-0.3</v>
       </c>
       <c r="BE45" t="n" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BF45" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="BG45" t="n" s="10">
         <v>-0.5</v>
@@ -16986,70 +16986,70 @@
         <v>0.2</v>
       </c>
       <c r="BI45" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="BJ45" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BK45" t="n" s="10">
         <v>0.5</v>
       </c>
       <c r="BL45" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BM45" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="BN45" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="BO45" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="BP45" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="BQ45" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="BR45" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="BS45" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="BT45" t="n" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="BU45" t="n" s="10">
+        <v>-0.4</v>
+      </c>
+      <c r="BV45" t="n" s="10">
+        <v>-0.3</v>
+      </c>
+      <c r="BW45" t="n" s="10">
+        <v>-1.0</v>
+      </c>
+      <c r="BX45" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="BY45" t="n" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="CA45" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="CB45" t="n" s="10">
         <v>0.9</v>
-      </c>
-      <c r="BP45" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="BQ45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="BR45" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="BS45" t="n" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="BT45" t="n" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="BU45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="BV45" t="n" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="BW45" t="n" s="10">
-        <v>-1.3</v>
-      </c>
-      <c r="BX45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="BY45" t="n" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="BZ45" t="n" s="10">
-        <v>-0.1</v>
-      </c>
-      <c r="CA45" t="n" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="CB45" t="n" s="10">
-        <v>1.0</v>
       </c>
       <c r="CC45" t="n" s="10">
         <v>-0.5</v>
       </c>
       <c r="CD45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CE45" t="n" s="10">
         <v>0.5</v>
@@ -17058,7 +17058,7 @@
         <v>-0.1</v>
       </c>
       <c r="CG45" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="CH45" t="n" s="10">
         <v>-0.7</v>
@@ -17079,7 +17079,7 @@
         <v>0.4</v>
       </c>
       <c r="CN45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="CO45" t="n" s="10">
         <v>0.4</v>
@@ -17103,16 +17103,16 @@
         <v>-0.5</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CW45" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CX45" t="n" s="10">
         <v>-0.2</v>
       </c>
       <c r="CY45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="CZ45" t="n" s="10">
         <v>-0.3</v>
@@ -17127,58 +17127,58 @@
         <v>0.5</v>
       </c>
       <c r="DD45" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="DE45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DF45" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DG45" t="n" s="10">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="DH45" t="n" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="DJ45" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DK45" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="DP45" t="n" s="10">
-        <v>-0.2</v>
+        <v>0.0</v>
       </c>
       <c r="DQ45" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.6</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="DU45" t="s" s="10">
-        <v>44</v>
+        <v>0.1</v>
+      </c>
+      <c r="DU45" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="DV45" t="s" s="10">
         <v>44</v>
@@ -17225,7 +17225,7 @@
         <v>-0.1</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O46" t="n" s="10">
         <v>-0.3</v>
@@ -17237,13 +17237,13 @@
         <v>-0.3</v>
       </c>
       <c r="R46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="S46" t="n" s="10">
         <v>0.1</v>
       </c>
       <c r="T46" t="n" s="10">
-        <v>-0.1</v>
+        <v>0.0</v>
       </c>
       <c r="U46" t="n" s="10">
         <v>0.1</v>
@@ -17267,7 +17267,7 @@
         <v>0.2</v>
       </c>
       <c r="AB46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC46" t="n" s="10">
         <v>0.4</v>
@@ -17279,7 +17279,7 @@
         <v>-0.1</v>
       </c>
       <c r="AF46" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AG46" t="n" s="10">
         <v>-0.5</v>
@@ -17303,7 +17303,7 @@
         <v>0.3</v>
       </c>
       <c r="AN46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AO46" t="n" s="10">
         <v>-0.1</v>
@@ -17318,10 +17318,10 @@
         <v>0.3</v>
       </c>
       <c r="AS46" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT46" t="n" s="10">
         <v>0.6</v>
-      </c>
-      <c r="AT46" t="n" s="10">
-        <v>0.7</v>
       </c>
       <c r="AU46" t="n" s="10">
         <v>1.0</v>
@@ -17348,85 +17348,85 @@
         <v>0.2</v>
       </c>
       <c r="BC46" t="n" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="BD46" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="BF46" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BG46" t="n" s="10">
         <v>0.7</v>
       </c>
       <c r="BH46" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="BI46" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="BJ46" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="BK46" t="n" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="BL46" t="n" s="10">
         <v>0.7</v>
       </c>
-      <c r="BJ46" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="BK46" t="n" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="BL46" t="n" s="10">
+      <c r="BM46" t="n" s="10">
         <v>0.6</v>
-      </c>
-      <c r="BM46" t="n" s="10">
-        <v>0.5</v>
       </c>
       <c r="BN46" t="n" s="10">
         <v>1.1</v>
       </c>
       <c r="BO46" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="BP46" t="n" s="10">
         <v>0.2</v>
       </c>
       <c r="BQ46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="BR46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BS46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="BT46" t="n" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="BU46" t="n" s="10">
         <v>-0.5</v>
       </c>
-      <c r="BU46" t="n" s="10">
+      <c r="BV46" t="n" s="10">
         <v>-1.1</v>
       </c>
-      <c r="BV46" t="n" s="10">
-        <v>-0.9</v>
-      </c>
       <c r="BW46" t="n" s="10">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="BX46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BY46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="CA46" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CB46" t="n" s="10">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="CC46" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CD46" t="n" s="10">
         <v>0.2</v>
@@ -17459,10 +17459,10 @@
         <v>-0.3</v>
       </c>
       <c r="CN46" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="CO46" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="CP46" t="n" s="10">
         <v>0.6</v>
@@ -17498,7 +17498,7 @@
         <v>0.4</v>
       </c>
       <c r="DA46" t="n" s="10">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="DB46" t="n" s="10">
         <v>-0.2</v>
@@ -17516,10 +17516,10 @@
         <v>0.2</v>
       </c>
       <c r="DG46" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.2</v>
       </c>
       <c r="DH46" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="DI46" t="n" s="10">
         <v>-1.1</v>
@@ -17528,37 +17528,37 @@
         <v>-0.2</v>
       </c>
       <c r="DK46" t="n" s="10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="DL46" t="n" s="10">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="DM46" t="n" s="10">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="DN46" t="n" s="10">
         <v>-0.6</v>
       </c>
       <c r="DO46" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.3</v>
       </c>
       <c r="DP46" t="n" s="10">
-        <v>-2.5</v>
+        <v>-2.0</v>
       </c>
       <c r="DQ46" t="n" s="10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="DR46" t="n" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>-0.5</v>
-      </c>
-      <c r="DU46" t="s" s="10">
-        <v>44</v>
+        <v>-0.2</v>
+      </c>
+      <c r="DU46" t="n" s="10">
+        <v>-1.3</v>
       </c>
       <c r="DV46" t="s" s="10">
         <v>44</v>
@@ -17605,7 +17605,7 @@
         <v>0.0</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O47" t="n" s="10">
         <v>0.8</v>
@@ -17620,7 +17620,7 @@
         <v>0.5</v>
       </c>
       <c r="S47" t="n" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="T47" t="n" s="10">
         <v>0.5</v>
@@ -17638,7 +17638,7 @@
         <v>0.4</v>
       </c>
       <c r="Y47" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z47" t="n" s="10">
         <v>0.9</v>
@@ -17656,7 +17656,7 @@
         <v>0.7</v>
       </c>
       <c r="AE47" t="n" s="10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF47" t="n" s="10">
         <v>0.3</v>
@@ -17701,13 +17701,13 @@
         <v>0.1</v>
       </c>
       <c r="AT47" t="n" s="10">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AU47" t="n" s="10">
         <v>0.6</v>
       </c>
       <c r="AV47" t="n" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AW47" t="n" s="10">
         <v>0.4</v>
@@ -17740,7 +17740,7 @@
         <v>0.2</v>
       </c>
       <c r="BG47" t="n" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="BH47" t="n" s="10">
         <v>0.6</v>
@@ -17770,43 +17770,43 @@
         <v>0.7</v>
       </c>
       <c r="BQ47" t="n" s="10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="BR47" t="n" s="10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BS47" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="BT47" t="n" s="10">
+        <v>-0.5</v>
+      </c>
+      <c r="BU47" t="n" s="10">
+        <v>-0.8</v>
+      </c>
+      <c r="BV47" t="n" s="10">
+        <v>-1.9</v>
+      </c>
+      <c r="BW47" t="n" s="10">
+        <v>-4.5</v>
+      </c>
+      <c r="BX47" t="n" s="10">
+        <v>-1.1</v>
+      </c>
+      <c r="BY47" t="n" s="10">
         <v>1.2</v>
       </c>
-      <c r="BT47" t="n" s="10">
-        <v>-0.4</v>
-      </c>
-      <c r="BU47" t="n" s="10">
-        <v>-1.4</v>
-      </c>
-      <c r="BV47" t="n" s="10">
-        <v>-1.7</v>
-      </c>
-      <c r="BW47" t="n" s="10">
-        <v>-4.2</v>
-      </c>
-      <c r="BX47" t="n" s="10">
-        <v>-1.2</v>
-      </c>
-      <c r="BY47" t="n" s="10">
-        <v>0.8</v>
-      </c>
       <c r="BZ47" t="n" s="10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="CA47" t="n" s="10">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="CB47" t="n" s="10">
-        <v>2.0</v>
+        <v>2.1</v>
       </c>
       <c r="CC47" t="n" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="CD47" t="n" s="10">
         <v>1.2</v>
@@ -17839,7 +17839,7 @@
         <v>0.0</v>
       </c>
       <c r="CN47" t="n" s="10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="CO47" t="n" s="10">
         <v>0.4</v>
@@ -17896,49 +17896,49 @@
         <v>0.7</v>
       </c>
       <c r="DG47" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="DH47" t="n" s="10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="DI47" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="DJ47" t="n" s="10">
         <v>-0.1</v>
       </c>
       <c r="DK47" t="n" s="10">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="DL47" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="DM47" t="n" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="DN47" t="n" s="10">
         <v>-1.0</v>
       </c>
       <c r="DO47" t="n" s="10">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="DP47" t="n" s="10">
         <v>-8.4</v>
       </c>
       <c r="DQ47" t="n" s="10">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="DR47" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="DS47" t="n" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="DT47" t="n" s="10">
         <v>1.0</v>
       </c>
-      <c r="DS47" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="DT47" t="n" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="DU47" t="s" s="10">
-        <v>44</v>
+      <c r="DU47" t="n" s="10">
+        <v>0.2</v>
       </c>
       <c r="DV47" t="s" s="10">
         <v>44</v>
@@ -18009,7 +18009,7 @@
         <v>-0.3</v>
       </c>
       <c r="V48" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="W48" t="n" s="10">
         <v>-0.1</v>
@@ -18057,7 +18057,7 @@
         <v>-0.7</v>
       </c>
       <c r="AL48" t="n" s="10">
-        <v>0.0</v>
+        <v>-0.1</v>
       </c>
       <c r="AM48" t="n" s="10">
         <v>-1.1</v>
@@ -18114,10 +18114,10 @@
         <v>-0.6</v>
       </c>
       <c r="BE48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BF48" t="n" s="10">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="BG48" t="n" s="10">
         <v>0.0</v>
@@ -18126,10 +18126,10 @@
         <v>-1.1</v>
       </c>
       <c r="BI48" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="BJ48" t="n" s="10">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="BK48" t="n" s="10">
         <v>-1.1</v>
@@ -18138,7 +18138,7 @@
         <v>-0.6</v>
       </c>
       <c r="BM48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BN48" t="n" s="10">
         <v>-1.1</v>
@@ -18288,13 +18288,13 @@
         <v>-0.1</v>
       </c>
       <c r="DK48" t="n" s="10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="DL48" t="n" s="10">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="DM48" t="n" s="10">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="DN48" t="n" s="10">
         <v>0.4</v>
@@ -18303,22 +18303,22 @@
         <v>1.1</v>
       </c>
       <c r="DP48" t="n" s="10">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="DQ48" t="n" s="10">
-        <v>-3.8</v>
+        <v>-4.8</v>
       </c>
       <c r="DR48" t="n" s="10">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>-1.6</v>
-      </c>
-      <c r="DU48" t="s" s="10">
-        <v>44</v>
+        <v>-1.1</v>
+      </c>
+      <c r="DU48" t="n" s="10">
+        <v>-1.5</v>
       </c>
       <c r="DV48" t="s" s="10">
         <v>44</v>
@@ -18378,7 +18378,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:49:09&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:52:25&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>